--- a/qcdata/positioning.xlsx
+++ b/qcdata/positioning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PP3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\z_Others\2021_Code_Institute\Software_Developer\Milestone_Project_3\PP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF506274-CBBD-4F59-8E15-8DDC78CEA533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE15685-4E6D-45F3-811A-67BD21B8DE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="20895" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positioning" sheetId="1" r:id="rId1"/>
@@ -412,12 +412,8 @@
         <v>150</v>
       </c>
       <c r="J13" s="7"/>
-      <c r="S13" s="8">
-        <v>3500000.3700459288</v>
-      </c>
-      <c r="T13" s="8">
-        <v>150.51629779576567</v>
-      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -445,12 +441,8 @@
         <v>160</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="S14" s="8">
-        <v>3503000.6461705221</v>
-      </c>
-      <c r="T14" s="8">
-        <v>159.40566337345217</v>
-      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -478,12 +470,8 @@
         <v>150.21</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="S15" s="8">
-        <v>3500039.9235708597</v>
-      </c>
-      <c r="T15" s="8">
-        <v>150.39004869770727</v>
-      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
@@ -511,12 +499,8 @@
         <v>160.21</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="S16" s="8">
-        <v>3503039.3131002821</v>
-      </c>
-      <c r="T16" s="8">
-        <v>160.424238953263</v>
-      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
@@ -544,12 +528,8 @@
         <v>150.41999999999999</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="S17" s="8">
-        <v>3500079.5860450482</v>
-      </c>
-      <c r="T17" s="8">
-        <v>150.12434741014712</v>
-      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
@@ -577,12 +557,8 @@
         <v>160.41999999999999</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="S18" s="8">
-        <v>3503080.3709840956</v>
-      </c>
-      <c r="T18" s="8">
-        <v>160.83181709544505</v>
-      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -610,12 +586,8 @@
         <v>150.63</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="S19" s="8">
-        <v>3500119.2647865852</v>
-      </c>
-      <c r="T19" s="8">
-        <v>150.38275052905661</v>
-      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
@@ -643,12 +615,8 @@
         <v>160.63</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="S20" s="8">
-        <v>3503119.8792364206</v>
-      </c>
-      <c r="T20" s="8">
-        <v>160.06223246098313</v>
-      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
@@ -676,12 +644,8 @@
         <v>150.84</v>
       </c>
       <c r="J21" s="7"/>
-      <c r="S21" s="8">
-        <v>3500160.0643441393</v>
-      </c>
-      <c r="T21" s="8">
-        <v>150.35196859547617</v>
-      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
@@ -709,12 +673,8 @@
         <v>160.84</v>
       </c>
       <c r="J22" s="7"/>
-      <c r="S22" s="8">
-        <v>3503160.7261245404</v>
-      </c>
-      <c r="T22" s="8">
-        <v>161.19746196675101</v>
-      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
@@ -742,12 +702,8 @@
         <v>151.05000000000001</v>
       </c>
       <c r="J23" s="7"/>
-      <c r="S23" s="8">
-        <v>3500199.534249187</v>
-      </c>
-      <c r="T23" s="8">
-        <v>151.30368315146507</v>
-      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -775,12 +731,8 @@
         <v>161.05000000000001</v>
       </c>
       <c r="J24" s="7"/>
-      <c r="S24" s="8">
-        <v>3503199.3861313541</v>
-      </c>
-      <c r="T24" s="8">
-        <v>161.39008814061071</v>
-      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
@@ -808,12 +760,8 @@
         <v>151.26</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="S25" s="8">
-        <v>3500240.2339521088</v>
-      </c>
-      <c r="T25" s="8">
-        <v>151.40870717282482</v>
-      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
@@ -841,12 +789,8 @@
         <v>161.26</v>
       </c>
       <c r="J26" s="7"/>
-      <c r="S26" s="8">
-        <v>3503239.3734577438</v>
-      </c>
-      <c r="T26" s="8">
-        <v>161.65049855208844</v>
-      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -874,12 +818,8 @@
         <v>151.47</v>
       </c>
       <c r="J27" s="7"/>
-      <c r="S27" s="8">
-        <v>3500280.7735950788</v>
-      </c>
-      <c r="T27" s="8">
-        <v>150.91202710210669</v>
-      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -907,12 +847,8 @@
         <v>161.47</v>
       </c>
       <c r="J28" s="7"/>
-      <c r="S28" s="8">
-        <v>3503279.5973504614</v>
-      </c>
-      <c r="T28" s="8">
-        <v>161.35656996675192</v>
-      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
@@ -940,12 +876,8 @@
         <v>151.68</v>
       </c>
       <c r="J29" s="7"/>
-      <c r="S29" s="8">
-        <v>3500320.1701691523</v>
-      </c>
-      <c r="T29" s="8">
-        <v>151.37960250634021</v>
-      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
@@ -973,12 +905,8 @@
         <v>161.68</v>
       </c>
       <c r="J30" s="7"/>
-      <c r="S30" s="8">
-        <v>3503320.5067124367</v>
-      </c>
-      <c r="T30" s="8">
-        <v>161.65707620997057</v>
-      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
@@ -1006,12 +934,8 @@
         <v>151.88999999999999</v>
       </c>
       <c r="J31" s="7"/>
-      <c r="S31" s="8">
-        <v>3500360.5280867401</v>
-      </c>
-      <c r="T31" s="8">
-        <v>152.34700695295166</v>
-      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
@@ -1039,12 +963,8 @@
         <v>161.88999999999999</v>
       </c>
       <c r="J32" s="7"/>
-      <c r="S32" s="8">
-        <v>3503359.9824629319</v>
-      </c>
-      <c r="T32" s="8">
-        <v>161.6268217811143</v>
-      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -1072,12 +992,8 @@
         <v>152.1</v>
       </c>
       <c r="J33" s="7"/>
-      <c r="S33" s="8">
-        <v>3500400.41716521</v>
-      </c>
-      <c r="T33" s="8">
-        <v>152.21897101117031</v>
-      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
@@ -1105,12 +1021,8 @@
         <v>162.1</v>
       </c>
       <c r="J34" s="7"/>
-      <c r="S34" s="8">
-        <v>3503400.6641726964</v>
-      </c>
-      <c r="T34" s="8">
-        <v>161.53147136637713</v>
-      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
@@ -1138,12 +1050,8 @@
         <v>152.31</v>
       </c>
       <c r="J35" s="7"/>
-      <c r="S35" s="8">
-        <v>3500440.6415599301</v>
-      </c>
-      <c r="T35" s="8">
-        <v>151.89623839952236</v>
-      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
@@ -1171,12 +1079,8 @@
         <v>162.31</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="S36" s="8">
-        <v>3503439.5427800161</v>
-      </c>
-      <c r="T36" s="8">
-        <v>162.71069304485962</v>
-      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
@@ -1204,12 +1108,8 @@
         <v>152.52000000000001</v>
       </c>
       <c r="J37" s="7"/>
-      <c r="S37" s="8">
-        <v>3500480.0752977696</v>
-      </c>
-      <c r="T37" s="8">
-        <v>152.15387204069989</v>
-      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
@@ -1237,12 +1137,8 @@
         <v>162.52000000000001</v>
       </c>
       <c r="J38" s="7"/>
-      <c r="S38" s="8">
-        <v>3503480.4555351697</v>
-      </c>
-      <c r="T38" s="8">
-        <v>162.9157456421249</v>
-      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
@@ -1270,12 +1166,8 @@
         <v>152.72999999999999</v>
       </c>
       <c r="J39" s="7"/>
-      <c r="S39" s="8">
-        <v>3500519.5111057507</v>
-      </c>
-      <c r="T39" s="8">
-        <v>152.53568983083534</v>
-      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
@@ -1303,12 +1195,8 @@
         <v>162.72999999999999</v>
       </c>
       <c r="J40" s="7"/>
-      <c r="S40" s="8">
-        <v>3503520.3950226433</v>
-      </c>
-      <c r="T40" s="8">
-        <v>162.93533985943716</v>
-      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
@@ -1336,12 +1224,8 @@
         <v>152.94</v>
       </c>
       <c r="J41" s="7"/>
-      <c r="S41" s="8">
-        <v>3500559.9608931593</v>
-      </c>
-      <c r="T41" s="8">
-        <v>152.40283958287529</v>
-      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
@@ -1369,12 +1253,8 @@
         <v>162.94</v>
       </c>
       <c r="J42" s="7"/>
-      <c r="S42" s="8">
-        <v>3503560.1332137301</v>
-      </c>
-      <c r="T42" s="8">
-        <v>163.2211708796622</v>
-      </c>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
@@ -1402,12 +1282,8 @@
         <v>153.15</v>
       </c>
       <c r="J43" s="7"/>
-      <c r="S43" s="8">
-        <v>3500599.6168769309</v>
-      </c>
-      <c r="T43" s="8">
-        <v>153.14937813338454</v>
-      </c>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
@@ -1435,12 +1311,8 @@
         <v>163.15</v>
       </c>
       <c r="J44" s="7"/>
-      <c r="S44" s="8">
-        <v>3503599.3357159356</v>
-      </c>
-      <c r="T44" s="8">
-        <v>163.68195992495245</v>
-      </c>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
@@ -1468,12 +1340,8 @@
         <v>153.36000000000001</v>
       </c>
       <c r="J45" s="7"/>
-      <c r="S45" s="8">
-        <v>3500639.6770125618</v>
-      </c>
-      <c r="T45" s="8">
-        <v>153.10772689964108</v>
-      </c>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
@@ -1501,12 +1369,8 @@
         <v>163.36000000000001</v>
       </c>
       <c r="J46" s="7"/>
-      <c r="S46" s="8">
-        <v>3503640.6674069744</v>
-      </c>
-      <c r="T46" s="8">
-        <v>163.21187251239147</v>
-      </c>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
@@ -1534,12 +1398,8 @@
         <v>153.57</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="S47" s="8">
-        <v>3500679.9528291086</v>
-      </c>
-      <c r="T47" s="8">
-        <v>153.10650643398111</v>
-      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
@@ -1567,12 +1427,8 @@
         <v>163.57</v>
       </c>
       <c r="J48" s="7"/>
-      <c r="S48" s="8">
-        <v>3503679.631148085</v>
-      </c>
-      <c r="T48" s="8">
-        <v>164.12782084872262</v>
-      </c>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
@@ -1600,12 +1456,8 @@
         <v>153.78</v>
       </c>
       <c r="J49" s="7"/>
-      <c r="S49" s="8">
-        <v>3500720.4207527633</v>
-      </c>
-      <c r="T49" s="8">
-        <v>153.69901388065492</v>
-      </c>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
@@ -1633,12 +1485,8 @@
         <v>163.78</v>
       </c>
       <c r="J50" s="7"/>
-      <c r="S50" s="8">
-        <v>3503720.4354753685</v>
-      </c>
-      <c r="T50" s="8">
-        <v>163.28147584119176</v>
-      </c>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
@@ -1666,12 +1514,8 @@
         <v>153.99</v>
       </c>
       <c r="J51" s="7"/>
-      <c r="S51" s="8">
-        <v>3500759.2340793987</v>
-      </c>
-      <c r="T51" s="8">
-        <v>154.2500116951116</v>
-      </c>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
@@ -1699,12 +1543,8 @@
         <v>163.99</v>
       </c>
       <c r="J52" s="7"/>
-      <c r="S52" s="8">
-        <v>3503760.6079779081</v>
-      </c>
-      <c r="T52" s="8">
-        <v>163.99814485544186</v>
-      </c>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
@@ -1732,12 +1572,8 @@
         <v>154.19999999999999</v>
       </c>
       <c r="J53" s="7"/>
-      <c r="S53" s="8">
-        <v>3500800.4770722948</v>
-      </c>
-      <c r="T53" s="8">
-        <v>153.99370528949848</v>
-      </c>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
@@ -1765,12 +1601,8 @@
         <v>164.2</v>
       </c>
       <c r="J54" s="7"/>
-      <c r="S54" s="8">
-        <v>3503799.7186643817</v>
-      </c>
-      <c r="T54" s="8">
-        <v>164.50422896931298</v>
-      </c>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
@@ -1798,12 +1630,8 @@
         <v>154.41</v>
       </c>
       <c r="J55" s="7"/>
-      <c r="S55" s="8">
-        <v>3500840.2704710667</v>
-      </c>
-      <c r="T55" s="8">
-        <v>154.81320698952402</v>
-      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
@@ -1831,12 +1659,8 @@
         <v>164.41</v>
       </c>
       <c r="J56" s="7"/>
-      <c r="S56" s="8">
-        <v>3503839.6740701813</v>
-      </c>
-      <c r="T56" s="8">
-        <v>164.11445962273228</v>
-      </c>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
@@ -1864,12 +1688,8 @@
         <v>154.62</v>
       </c>
       <c r="J57" s="7"/>
-      <c r="S57" s="8">
-        <v>3500880.6879232698</v>
-      </c>
-      <c r="T57" s="8">
-        <v>154.66131002014839</v>
-      </c>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
@@ -1897,12 +1717,8 @@
         <v>164.62</v>
       </c>
       <c r="J58" s="7"/>
-      <c r="S58" s="8">
-        <v>3503879.6511366959</v>
-      </c>
-      <c r="T58" s="8">
-        <v>164.542198279557</v>
-      </c>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
@@ -1930,12 +1746,8 @@
         <v>154.83000000000001</v>
       </c>
       <c r="J59" s="7"/>
-      <c r="S59" s="8">
-        <v>3500919.4702079543</v>
-      </c>
-      <c r="T59" s="8">
-        <v>154.4192449748347</v>
-      </c>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
@@ -1963,12 +1775,8 @@
         <v>164.83</v>
       </c>
       <c r="J60" s="7"/>
-      <c r="S60" s="8">
-        <v>3503920.3922665664</v>
-      </c>
-      <c r="T60" s="8">
-        <v>164.95057744440621</v>
-      </c>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
@@ -1996,12 +1804,8 @@
         <v>155.04</v>
       </c>
       <c r="J61" s="7"/>
-      <c r="S61" s="8">
-        <v>3500959.9634149624</v>
-      </c>
-      <c r="T61" s="8">
-        <v>155.56494091203888</v>
-      </c>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
@@ -2029,12 +1833,8 @@
         <v>165.04</v>
       </c>
       <c r="J62" s="7"/>
-      <c r="S62" s="8">
-        <v>3503960.2455112659</v>
-      </c>
-      <c r="T62" s="8">
-        <v>164.56931029453011</v>
-      </c>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
@@ -2062,12 +1862,8 @@
         <v>155.25</v>
       </c>
       <c r="J63" s="7"/>
-      <c r="S63" s="8">
-        <v>3501000.746521493</v>
-      </c>
-      <c r="T63" s="8">
-        <v>155.72997772167466</v>
-      </c>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
@@ -2095,12 +1891,8 @@
         <v>165.25</v>
       </c>
       <c r="J64" s="7"/>
-      <c r="S64" s="8">
-        <v>3503999.700843981</v>
-      </c>
-      <c r="T64" s="8">
-        <v>165.31055798942856</v>
-      </c>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
@@ -2128,12 +1920,8 @@
         <v>155.46</v>
       </c>
       <c r="J65" s="7"/>
-      <c r="S65" s="8">
-        <v>3501039.3223031326</v>
-      </c>
-      <c r="T65" s="8">
-        <v>155.37282802418554</v>
-      </c>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
@@ -2161,12 +1949,8 @@
         <v>165.46</v>
       </c>
       <c r="J66" s="7"/>
-      <c r="S66" s="8">
-        <v>3504040.4662642353</v>
-      </c>
-      <c r="T66" s="8">
-        <v>165.04285699643532</v>
-      </c>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
@@ -2194,12 +1978,8 @@
         <v>155.66999999999999</v>
       </c>
       <c r="J67" s="7"/>
-      <c r="S67" s="8">
-        <v>3501079.7846143669</v>
-      </c>
-      <c r="T67" s="8">
-        <v>155.36705520301615</v>
-      </c>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
@@ -2227,12 +2007,8 @@
         <v>165.67</v>
       </c>
       <c r="J68" s="7"/>
-      <c r="S68" s="8">
-        <v>3504080.1361590228</v>
-      </c>
-      <c r="T68" s="8">
-        <v>165.60684255244436</v>
-      </c>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
@@ -2260,12 +2036,8 @@
         <v>155.88</v>
       </c>
       <c r="J69" s="7"/>
-      <c r="S69" s="8">
-        <v>3501119.4933387297</v>
-      </c>
-      <c r="T69" s="8">
-        <v>155.91934012523635</v>
-      </c>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
@@ -2293,12 +2065,8 @@
         <v>165.88</v>
       </c>
       <c r="J70" s="7"/>
-      <c r="S70" s="8">
-        <v>3504119.3230703077</v>
-      </c>
-      <c r="T70" s="8">
-        <v>165.70558136115829</v>
-      </c>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
@@ -2326,12 +2094,8 @@
         <v>156.09</v>
       </c>
       <c r="J71" s="7"/>
-      <c r="S71" s="8">
-        <v>3501159.4458604264</v>
-      </c>
-      <c r="T71" s="8">
-        <v>156.41773777472685</v>
-      </c>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
@@ -2359,12 +2123,8 @@
         <v>166.09</v>
       </c>
       <c r="J72" s="7"/>
-      <c r="S72" s="8">
-        <v>3504160.5230015842</v>
-      </c>
-      <c r="T72" s="8">
-        <v>166.5480173709405</v>
-      </c>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
@@ -2392,12 +2152,8 @@
         <v>156.30000000000001</v>
       </c>
       <c r="J73" s="7"/>
-      <c r="S73" s="8">
-        <v>3501199.6815307881</v>
-      </c>
-      <c r="T73" s="8">
-        <v>156.58091051217136</v>
-      </c>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
@@ -2425,12 +2181,8 @@
         <v>166.3</v>
       </c>
       <c r="J74" s="7"/>
-      <c r="S74" s="8">
-        <v>3504199.8142151842</v>
-      </c>
-      <c r="T74" s="8">
-        <v>166.18771864763212</v>
-      </c>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
@@ -2458,12 +2210,8 @@
         <v>156.51</v>
       </c>
       <c r="J75" s="7"/>
-      <c r="S75" s="8">
-        <v>3501240.2411983158</v>
-      </c>
-      <c r="T75" s="8">
-        <v>156.63501449472247</v>
-      </c>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
@@ -2491,12 +2239,8 @@
         <v>166.51</v>
       </c>
       <c r="J76" s="7"/>
-      <c r="S76" s="8">
-        <v>3504240.5077928384</v>
-      </c>
-      <c r="T76" s="8">
-        <v>166.6793260619921</v>
-      </c>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
@@ -2524,12 +2268,8 @@
         <v>156.72</v>
       </c>
       <c r="J77" s="7"/>
-      <c r="S77" s="8">
-        <v>3501280.4260259508</v>
-      </c>
-      <c r="T77" s="8">
-        <v>156.27296020321845</v>
-      </c>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
@@ -2557,12 +2297,8 @@
         <v>166.72</v>
       </c>
       <c r="J78" s="7"/>
-      <c r="S78" s="8">
-        <v>3504279.7986808922</v>
-      </c>
-      <c r="T78" s="8">
-        <v>166.71543039633511</v>
-      </c>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
@@ -2590,12 +2326,8 @@
         <v>156.93</v>
       </c>
       <c r="J79" s="7"/>
-      <c r="S79" s="8">
-        <v>3501319.5037799645</v>
-      </c>
-      <c r="T79" s="8">
-        <v>156.70256322660842</v>
-      </c>
+      <c r="S79" s="8"/>
+      <c r="T79" s="8"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
@@ -2623,12 +2355,8 @@
         <v>166.93</v>
       </c>
       <c r="J80" s="7"/>
-      <c r="S80" s="8">
-        <v>3504320.2344028084</v>
-      </c>
-      <c r="T80" s="8">
-        <v>167.02428935666174</v>
-      </c>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
@@ -2656,12 +2384,8 @@
         <v>157.13999999999999</v>
       </c>
       <c r="J81" s="7"/>
-      <c r="S81" s="8">
-        <v>3501359.2057684874</v>
-      </c>
-      <c r="T81" s="8">
-        <v>157.6723307244466</v>
-      </c>
+      <c r="S81" s="8"/>
+      <c r="T81" s="8"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
@@ -2689,12 +2413,8 @@
         <v>167.14</v>
       </c>
       <c r="J82" s="7"/>
-      <c r="S82" s="8">
-        <v>3504359.6526206485</v>
-      </c>
-      <c r="T82" s="8">
-        <v>167.05232753113162</v>
-      </c>
+      <c r="S82" s="8"/>
+      <c r="T82" s="8"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
@@ -2722,12 +2442,8 @@
         <v>157.35</v>
       </c>
       <c r="J83" s="7"/>
-      <c r="S83" s="8">
-        <v>3501400.2217609514</v>
-      </c>
-      <c r="T83" s="8">
-        <v>156.78975412940409</v>
-      </c>
+      <c r="S83" s="8"/>
+      <c r="T83" s="8"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
@@ -2755,12 +2471,8 @@
         <v>167.35</v>
       </c>
       <c r="J84" s="7"/>
-      <c r="S84" s="8">
-        <v>3504400.1473193276</v>
-      </c>
-      <c r="T84" s="8">
-        <v>167.86532065454315</v>
-      </c>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
@@ -2788,12 +2500,8 @@
         <v>157.56</v>
       </c>
       <c r="J85" s="7"/>
-      <c r="S85" s="8">
-        <v>3501439.7204627274</v>
-      </c>
-      <c r="T85" s="8">
-        <v>158.0699787015995</v>
-      </c>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
@@ -2821,12 +2529,8 @@
         <v>167.56</v>
       </c>
       <c r="J86" s="7"/>
-      <c r="S86" s="8">
-        <v>3504440.7823220021</v>
-      </c>
-      <c r="T86" s="8">
-        <v>167.38996830346517</v>
-      </c>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
@@ -2854,12 +2558,8 @@
         <v>157.77000000000001</v>
       </c>
       <c r="J87" s="7"/>
-      <c r="S87" s="8">
-        <v>3501479.397177354</v>
-      </c>
-      <c r="T87" s="8">
-        <v>157.48198693958699</v>
-      </c>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
@@ -2887,12 +2587,8 @@
         <v>167.77</v>
       </c>
       <c r="J88" s="7"/>
-      <c r="S88" s="8">
-        <v>3504480.3774031783</v>
-      </c>
-      <c r="T88" s="8">
-        <v>168.11423157472427</v>
-      </c>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
@@ -2920,12 +2616,8 @@
         <v>157.97999999999999</v>
       </c>
       <c r="J89" s="7"/>
-      <c r="S89" s="8">
-        <v>3501519.4505872321</v>
-      </c>
-      <c r="T89" s="8">
-        <v>157.9938986920564</v>
-      </c>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
@@ -2953,12 +2645,8 @@
         <v>167.98</v>
       </c>
       <c r="J90" s="7"/>
-      <c r="S90" s="8">
-        <v>3504519.8954358581</v>
-      </c>
-      <c r="T90" s="8">
-        <v>168.05503258406787</v>
-      </c>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
@@ -2986,12 +2674,8 @@
         <v>158.19</v>
       </c>
       <c r="J91" s="7"/>
-      <c r="S91" s="8">
-        <v>3501560.531589149</v>
-      </c>
-      <c r="T91" s="8">
-        <v>158.41175251697223</v>
-      </c>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
@@ -3019,12 +2703,8 @@
         <v>168.19</v>
       </c>
       <c r="J92" s="7"/>
-      <c r="S92" s="8">
-        <v>3504559.7758552982</v>
-      </c>
-      <c r="T92" s="8">
-        <v>167.70087591441722</v>
-      </c>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
@@ -3052,12 +2732,8 @@
         <v>158.4</v>
       </c>
       <c r="J93" s="7"/>
-      <c r="S93" s="8">
-        <v>3501599.3219808759</v>
-      </c>
-      <c r="T93" s="8">
-        <v>158.84709476044733</v>
-      </c>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
@@ -3085,12 +2761,8 @@
         <v>168.4</v>
       </c>
       <c r="J94" s="7"/>
-      <c r="S94" s="8">
-        <v>3504600.0910808733</v>
-      </c>
-      <c r="T94" s="8">
-        <v>168.93152545626364</v>
-      </c>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
@@ -3118,12 +2790,8 @@
         <v>158.61000000000001</v>
       </c>
       <c r="J95" s="7"/>
-      <c r="S95" s="8">
-        <v>3501639.6382883587</v>
-      </c>
-      <c r="T95" s="8">
-        <v>158.12591308392231</v>
-      </c>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
@@ -3151,12 +2819,8 @@
         <v>168.61</v>
       </c>
       <c r="J96" s="7"/>
-      <c r="S96" s="8">
-        <v>3504639.411287487</v>
-      </c>
-      <c r="T96" s="8">
-        <v>169.02505900626574</v>
-      </c>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
@@ -3184,12 +2848,8 @@
         <v>158.82</v>
       </c>
       <c r="J97" s="7"/>
-      <c r="S97" s="8">
-        <v>3501680.3194477581</v>
-      </c>
-      <c r="T97" s="8">
-        <v>159.31127473782723</v>
-      </c>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
@@ -3217,12 +2877,8 @@
         <v>168.82</v>
       </c>
       <c r="J98" s="7"/>
-      <c r="S98" s="8">
-        <v>3504679.977447852</v>
-      </c>
-      <c r="T98" s="8">
-        <v>168.23360936867169</v>
-      </c>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
@@ -3250,12 +2906,8 @@
         <v>159.03</v>
       </c>
       <c r="J99" s="7"/>
-      <c r="S99" s="8">
-        <v>3501719.4923460013</v>
-      </c>
-      <c r="T99" s="8">
-        <v>159.05841924449456</v>
-      </c>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
@@ -3283,12 +2935,8 @@
         <v>169.03</v>
       </c>
       <c r="J100" s="7"/>
-      <c r="S100" s="8">
-        <v>3504719.3619432612</v>
-      </c>
-      <c r="T100" s="8">
-        <v>169.21041432839073</v>
-      </c>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
@@ -3316,12 +2964,8 @@
         <v>159.24</v>
       </c>
       <c r="J101" s="7"/>
-      <c r="S101" s="8">
-        <v>3501759.5225349236</v>
-      </c>
-      <c r="T101" s="8">
-        <v>159.10217442084712</v>
-      </c>
+      <c r="S101" s="8"/>
+      <c r="T101" s="8"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
@@ -3349,12 +2993,8 @@
         <v>169.24</v>
       </c>
       <c r="J102" s="7"/>
-      <c r="S102" s="8">
-        <v>3504759.4155936171</v>
-      </c>
-      <c r="T102" s="8">
-        <v>169.41916245934888</v>
-      </c>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
@@ -3382,12 +3022,8 @@
         <v>159.44999999999999</v>
       </c>
       <c r="J103" s="7"/>
-      <c r="S103" s="8">
-        <v>3501799.7180626462</v>
-      </c>
-      <c r="T103" s="8">
-        <v>159.7654241757028</v>
-      </c>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
@@ -3415,12 +3051,8 @@
         <v>169.45</v>
       </c>
       <c r="J104" s="7"/>
-      <c r="S104" s="8">
-        <v>3504800.7208720772</v>
-      </c>
-      <c r="T104" s="8">
-        <v>169.5408231776598</v>
-      </c>
+      <c r="S104" s="8"/>
+      <c r="T104" s="8"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
@@ -3448,12 +3080,8 @@
         <v>159.66</v>
       </c>
       <c r="J105" s="7"/>
-      <c r="S105" s="8">
-        <v>3501840.0514088972</v>
-      </c>
-      <c r="T105" s="8">
-        <v>159.81830297845468</v>
-      </c>
+      <c r="S105" s="8"/>
+      <c r="T105" s="8"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
@@ -3481,12 +3109,8 @@
         <v>169.66</v>
       </c>
       <c r="J106" s="7"/>
-      <c r="S106" s="8">
-        <v>3504839.596297136</v>
-      </c>
-      <c r="T106" s="8">
-        <v>169.39384480466452</v>
-      </c>
+      <c r="S106" s="8"/>
+      <c r="T106" s="8"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
@@ -3514,12 +3138,8 @@
         <v>159.87</v>
       </c>
       <c r="J107" s="7"/>
-      <c r="S107" s="8">
-        <v>3501879.8996420051</v>
-      </c>
-      <c r="T107" s="8">
-        <v>160.27780370735977</v>
-      </c>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
@@ -3547,12 +3167,8 @@
         <v>169.87</v>
       </c>
       <c r="J108" s="7"/>
-      <c r="S108" s="8">
-        <v>3504880.270540453</v>
-      </c>
-      <c r="T108" s="8">
-        <v>169.7822019474869</v>
-      </c>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
@@ -3580,12 +3196,8 @@
         <v>160.08000000000001</v>
       </c>
       <c r="J109" s="7"/>
-      <c r="S109" s="8">
-        <v>3501920.0763131375</v>
-      </c>
-      <c r="T109" s="8">
-        <v>160.23794685401961</v>
-      </c>
+      <c r="S109" s="8"/>
+      <c r="T109" s="8"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
@@ -3613,12 +3225,8 @@
         <v>170.08</v>
       </c>
       <c r="J110" s="7"/>
-      <c r="S110" s="8">
-        <v>3504920.1744871908</v>
-      </c>
-      <c r="T110" s="8">
-        <v>170.48016037782494</v>
-      </c>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
@@ -3646,12 +3254,8 @@
         <v>160.29</v>
       </c>
       <c r="J111" s="7"/>
-      <c r="S111" s="8">
-        <v>3501960.5810156162</v>
-      </c>
-      <c r="T111" s="8">
-        <v>160.01422255633747</v>
-      </c>
+      <c r="S111" s="8"/>
+      <c r="T111" s="8"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
@@ -3679,12 +3283,8 @@
         <v>170.29</v>
       </c>
       <c r="J112" s="7"/>
-      <c r="S112" s="8">
-        <v>3504959.8091135197</v>
-      </c>
-      <c r="T112" s="8">
-        <v>170.17096088340674</v>
-      </c>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
@@ -3712,12 +3312,8 @@
         <v>160.5</v>
       </c>
       <c r="J113" s="7"/>
-      <c r="S113" s="8">
-        <v>3502000.3983289846</v>
-      </c>
-      <c r="T113" s="8">
-        <v>160.56510551089639</v>
-      </c>
+      <c r="S113" s="8"/>
+      <c r="T113" s="8"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
@@ -3745,12 +3341,8 @@
         <v>170.5</v>
       </c>
       <c r="J114" s="7"/>
-      <c r="S114" s="8">
-        <v>3504999.4507148759</v>
-      </c>
-      <c r="T114" s="8">
-        <v>170.43263842819914</v>
-      </c>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
@@ -3778,12 +3370,8 @@
         <v>160.71</v>
       </c>
       <c r="J115" s="7"/>
-      <c r="S115" s="8">
-        <v>3502039.2929981085</v>
-      </c>
-      <c r="T115" s="8">
-        <v>160.21846094643433</v>
-      </c>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
@@ -3811,12 +3399,8 @@
         <v>170.71</v>
       </c>
       <c r="J116" s="7"/>
-      <c r="S116" s="8">
-        <v>3505039.7435311391</v>
-      </c>
-      <c r="T116" s="8">
-        <v>171.00325757198451</v>
-      </c>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
@@ -3844,12 +3428,8 @@
         <v>160.91999999999999</v>
       </c>
       <c r="J117" s="7"/>
-      <c r="S117" s="8">
-        <v>3502080.5074822642</v>
-      </c>
-      <c r="T117" s="8">
-        <v>160.35913853916347</v>
-      </c>
+      <c r="S117" s="8"/>
+      <c r="T117" s="8"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
@@ -3877,12 +3457,8 @@
         <v>170.92</v>
       </c>
       <c r="J118" s="7"/>
-      <c r="S118" s="8">
-        <v>3505079.8040762716</v>
-      </c>
-      <c r="T118" s="8">
-        <v>170.83569105211961</v>
-      </c>
+      <c r="S118" s="8"/>
+      <c r="T118" s="8"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
@@ -3910,12 +3486,8 @@
         <v>161.13</v>
       </c>
       <c r="J119" s="7"/>
-      <c r="S119" s="8">
-        <v>3502120.7561678914</v>
-      </c>
-      <c r="T119" s="8">
-        <v>160.57471473536881</v>
-      </c>
+      <c r="S119" s="8"/>
+      <c r="T119" s="8"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
@@ -3943,12 +3515,8 @@
         <v>171.13</v>
       </c>
       <c r="J120" s="7"/>
-      <c r="S120" s="8">
-        <v>3505120.168509745</v>
-      </c>
-      <c r="T120" s="8">
-        <v>171.70095730364332</v>
-      </c>
+      <c r="S120" s="8"/>
+      <c r="T120" s="8"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
@@ -3976,12 +3544,8 @@
         <v>161.34</v>
       </c>
       <c r="J121" s="7"/>
-      <c r="S121" s="8">
-        <v>3502159.7411778648</v>
-      </c>
-      <c r="T121" s="8">
-        <v>161.3668078896157</v>
-      </c>
+      <c r="S121" s="8"/>
+      <c r="T121" s="8"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
@@ -4009,12 +3573,8 @@
         <v>171.34</v>
       </c>
       <c r="J122" s="7"/>
-      <c r="S122" s="8">
-        <v>3505160.6847739555</v>
-      </c>
-      <c r="T122" s="8">
-        <v>171.83155597431738</v>
-      </c>
+      <c r="S122" s="8"/>
+      <c r="T122" s="8"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
@@ -4042,12 +3602,8 @@
         <v>161.55000000000001</v>
       </c>
       <c r="J123" s="7"/>
-      <c r="S123" s="8">
-        <v>3502200.6374795111</v>
-      </c>
-      <c r="T123" s="8">
-        <v>161.40989750560803</v>
-      </c>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
@@ -4075,12 +3631,8 @@
         <v>171.55</v>
       </c>
       <c r="J124" s="7"/>
-      <c r="S124" s="8">
-        <v>3505200.561130337</v>
-      </c>
-      <c r="T124" s="8">
-        <v>172.01134268428575</v>
-      </c>
+      <c r="S124" s="8"/>
+      <c r="T124" s="8"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
@@ -4108,12 +3660,8 @@
         <v>161.76</v>
       </c>
       <c r="J125" s="7"/>
-      <c r="S125" s="8">
-        <v>3502239.6108670672</v>
-      </c>
-      <c r="T125" s="8">
-        <v>161.46602113119738</v>
-      </c>
+      <c r="S125" s="8"/>
+      <c r="T125" s="8"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
@@ -4141,12 +3689,8 @@
         <v>171.76</v>
       </c>
       <c r="J126" s="7"/>
-      <c r="S126" s="8">
-        <v>3505239.6567928013</v>
-      </c>
-      <c r="T126" s="8">
-        <v>172.25085981033135</v>
-      </c>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
@@ -4174,12 +3718,8 @@
         <v>161.97</v>
       </c>
       <c r="J127" s="7"/>
-      <c r="S127" s="8">
-        <v>3502280.4479150567</v>
-      </c>
-      <c r="T127" s="8">
-        <v>162.44347253370151</v>
-      </c>
+      <c r="S127" s="8"/>
+      <c r="T127" s="8"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
@@ -4207,12 +3747,8 @@
         <v>171.97</v>
       </c>
       <c r="J128" s="7"/>
-      <c r="S128" s="8">
-        <v>3505280.3222323651</v>
-      </c>
-      <c r="T128" s="8">
-        <v>171.8482205931887</v>
-      </c>
+      <c r="S128" s="8"/>
+      <c r="T128" s="8"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
@@ -4240,12 +3776,8 @@
         <v>162.18</v>
       </c>
       <c r="J129" s="7"/>
-      <c r="S129" s="8">
-        <v>3502319.9880188419</v>
-      </c>
-      <c r="T129" s="8">
-        <v>162.3300240022032</v>
-      </c>
+      <c r="S129" s="8"/>
+      <c r="T129" s="8"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
@@ -4273,12 +3805,8 @@
         <v>172.18</v>
       </c>
       <c r="J130" s="7"/>
-      <c r="S130" s="8">
-        <v>3505320.7482683975</v>
-      </c>
-      <c r="T130" s="8">
-        <v>172.261116743423</v>
-      </c>
+      <c r="S130" s="8"/>
+      <c r="T130" s="8"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
@@ -4306,12 +3834,8 @@
         <v>162.38999999999999</v>
       </c>
       <c r="J131" s="7"/>
-      <c r="S131" s="8">
-        <v>3502359.9618583908</v>
-      </c>
-      <c r="T131" s="8">
-        <v>162.86341426253398</v>
-      </c>
+      <c r="S131" s="8"/>
+      <c r="T131" s="8"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
@@ -4339,12 +3863,8 @@
         <v>172.39</v>
       </c>
       <c r="J132" s="7"/>
-      <c r="S132" s="8">
-        <v>3505360.7918488276</v>
-      </c>
-      <c r="T132" s="8">
-        <v>172.04699896464146</v>
-      </c>
+      <c r="S132" s="8"/>
+      <c r="T132" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
